--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -1012,182 +1012,182 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1490,168 +1490,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="32">
         <f>$J$4*1.2</f>
         <v>36</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="32">
         <f>B4</f>
         <v>36</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="32">
         <f>B4*2</f>
         <v>72</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="32">
         <f>B4*3</f>
         <v>108</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="32">
         <f>B4*4</f>
         <v>144</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="33">
         <f>B4*5</f>
         <v>180</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="32">
         <f>$J$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="51">
         <f>J4*0.6</f>
         <v>18</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="28">
+      <c r="D8" s="52"/>
+      <c r="E8" s="54">
         <f>(B8*5)+C8</f>
         <v>33</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="29" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="36">
         <v>2</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="32">
         <f>$J$4*0.25</f>
         <v>7.5</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="44">
         <f>B12*10</f>
         <v>75</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="44">
         <f>B12*20</f>
         <v>150</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="44">
         <f>B12*30</f>
         <v>225</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="34">
         <f>B12*30</f>
         <v>225</v>
       </c>
@@ -1660,86 +1660,86 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="32">
         <f>$J$4*0.4</f>
         <v>12</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="44">
         <f>$J$4*40</f>
         <v>1200</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="34">
         <f>B16+C16</f>
         <v>1212</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="40">
         <f>((J4+(5*J11))*(1.2+(0.2*L11)))*5</f>
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="40">
         <f>(((J4+(5*J11))*0.1)*5)+((J4+(5*J11))*(0.6+(0.2*L11)))</f>
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="40">
         <f>(J4/2+(5*J11))*(0.25+(0.2*L11))*30</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="20" spans="9:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="34">
         <f>((J4+(5*J11))*(0.4+(0.2*L11)))+((J4+(5*J11))*(40+(0.2*L11)))</f>
         <v>1616</v>
       </c>
@@ -1765,7 +1765,7 @@
   <dimension ref="B2:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,25 +1794,25 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="22">
+      <c r="B4" s="17">
         <v>500</v>
       </c>
       <c r="C4" s="8">
@@ -1825,60 +1825,60 @@
         <f>H27+(H27*1.5)+(H27*0.3)</f>
         <v>5.6</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="67">
         <f>(F21+F26+F31)</f>
         <v>232</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="68"/>
       <c r="I4" s="6"/>
       <c r="K4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="13" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="14">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="67">
         <f>B4+(H21*(H25/2))</f>
         <v>1700</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="68"/>
       <c r="K6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="28">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="54">
         <f>F6-(F4*(H25/2.5))</f>
         <v>957.59999999999991</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="55"/>
       <c r="K8" t="s">
         <v>101</v>
       </c>
@@ -1889,99 +1889,99 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="66"/>
       <c r="K10" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
       <c r="K12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="42"/>
-      <c r="K13" s="49" t="s">
+      <c r="F13" s="24"/>
+      <c r="K13" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="K14" s="17" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="K14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="K15" s="51">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="K15" s="31">
         <f>B21+(7*K10)</f>
-        <v>364</v>
-      </c>
-      <c r="L15" s="52">
+        <v>350</v>
+      </c>
+      <c r="L15" s="32">
         <f>C21+(1*K10)</f>
-        <v>12</v>
-      </c>
-      <c r="M15" s="52">
+        <v>10</v>
+      </c>
+      <c r="M15" s="32">
         <f>D21+(2*K10)</f>
-        <v>24</v>
-      </c>
-      <c r="N15" s="53">
+        <v>20</v>
+      </c>
+      <c r="N15" s="33">
         <f>E21+(1*K10/2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K17" t="s">
@@ -1992,80 +1992,80 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="31">
         <f>B26+(5*K10)</f>
-        <v>210</v>
-      </c>
-      <c r="L20" s="52">
+        <v>200</v>
+      </c>
+      <c r="L20" s="32">
         <f>C26+(1.5*K10)</f>
-        <v>23</v>
-      </c>
-      <c r="M20" s="52">
+        <v>20</v>
+      </c>
+      <c r="M20" s="32">
         <f>D26+(2*K10)</f>
-        <v>34</v>
-      </c>
-      <c r="N20" s="53">
+        <v>30</v>
+      </c>
+      <c r="N20" s="33">
         <f>E26+(1*K10/2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="51">
+      <c r="B21" s="31">
         <v>350</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="32">
         <v>10</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="32">
         <v>20</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="32">
         <v>5</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="34">
         <f>C21+D21 *H27</f>
         <v>50</v>
       </c>
@@ -2079,80 +2079,80 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="50" t="s">
+      <c r="N24" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="4">
         <v>8</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="31">
         <f>B31+(62.5*K10)</f>
-        <v>1125</v>
-      </c>
-      <c r="L25" s="52">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="32">
         <f>C31+(5*K10)</f>
-        <v>60</v>
-      </c>
-      <c r="M25" s="52">
+        <v>50</v>
+      </c>
+      <c r="M25" s="32">
         <f>D31+(1.5*K10)</f>
-        <v>23</v>
-      </c>
-      <c r="N25" s="53">
+        <v>20</v>
+      </c>
+      <c r="N25" s="33">
         <f>E31+(2*K10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
+      <c r="B26" s="31">
         <v>200</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="32">
         <v>20</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="32">
         <v>30</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="32">
         <v>5</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="34">
         <f>((C26*2)+D26) * H27</f>
         <v>140</v>
       </c>
@@ -2164,12 +2164,12 @@
       <c r="H27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="29" t="s">
         <v>62</v>
       </c>
       <c r="M28" t="s">
@@ -2177,120 +2177,120 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q29" s="50" t="s">
+      <c r="Q29" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="31">
         <f>B36+(500*K10)</f>
-        <v>31000</v>
-      </c>
-      <c r="L30" s="52">
+        <v>30000</v>
+      </c>
+      <c r="L30" s="32">
         <f>C36+(10*K10)</f>
-        <v>120</v>
-      </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="51">
+      <c r="B31" s="31">
         <v>1000</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="32">
         <v>50</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="32">
         <v>20</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="32">
         <v>5</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="34">
         <f xml:space="preserve"> (C31+D31)*H27*0.3</f>
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="51">
+      <c r="B36" s="31">
         <v>30000</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="32">
         <v>100</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2314,7 +2314,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2483,7 +2483,7 @@
       <c r="H13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <v>0.2</v>
       </c>
       <c r="J13" s="8">

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
     <sheet name="몬스터 대미지 밸런스" sheetId="2" r:id="rId2"/>
+    <sheet name="버프 테스트" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>스킬 계수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,131 +131,307 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>맥의 타격은 1.5     스킬1은 2번 스킬2는 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버는 0.3     스킬1은 1번   스킬2는 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 헷의 총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥의 총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버의 총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 N회 타격당했을때 총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스테이지진행시 체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 계수(10%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2발</t>
+  </si>
+  <si>
+    <t>3발</t>
+  </si>
+  <si>
+    <t>4발</t>
+  </si>
+  <si>
+    <t>5발</t>
+  </si>
+  <si>
+    <t>마지막 타격 계수(60%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수당 증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 : 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 총 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 최대 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 : 20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 학습, 강화 효과[버프, 방어력, 실드] 예상으로 전체 스테이지 횟수 /2.5로 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 계수(40%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 계수(25%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4[궁극기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 몬스터 능력치상승필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 당 보스의 능력치 상승 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴3 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴5 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 계수 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 체력 500+, 공격력 5 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 체력5+, 공격력1 1.5+, 공격력2 3+, 스테이지 2당 방어력1+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 체력7+, 공격력1 1+ 공격력2 2+, 스테이자 2당 방어력1+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 체력62.5+, 공격력1 5+, 공격력2 1.5+, 스테이지 당 방어력2+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리 공격(4000%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 쿨타임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 최대치 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회복형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버프형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 능력히</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 적용 양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 16개만 되어야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 적용 버프 양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>레드헷의 타격은 1  스킬1은 전체중 1번 스킬2은 1번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맥의 타격은 1.5     스킬1은 2번 스킬2는 1번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버는 0.3     스킬1은 1번   스킬2는 1번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드 헷의 총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥의 총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버의 총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지당 N회 타격당했을때 총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스테이지진행시 체력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상 체력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 학습, 강화 효과예상으로 전체 스테이지 횟수 /2.5로 계산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 계수(10%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2발</t>
-  </si>
-  <si>
-    <t>3발</t>
-  </si>
-  <si>
-    <t>4발</t>
-  </si>
-  <si>
-    <t>5발</t>
-  </si>
-  <si>
-    <t>마지막 타격 계수(60%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 계수(25%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횟수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횟수당 증가량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 : 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 총 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 최대 대미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 : 20%</t>
+    <t>타격 횟수 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벼프 중첩 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지 진행에 따른 적들 강화 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기본 스팩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +471,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +502,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -346,6 +546,173 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -353,7 +720,251 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -364,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,50 +988,206 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,17 +1469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
@@ -722,229 +1489,270 @@
     <col min="12" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="32">
         <f>$J$4*1.2</f>
         <v>36</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="32">
         <f>B4</f>
         <v>36</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="32">
         <f>B4*2</f>
         <v>72</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="32">
         <f>B4*3</f>
         <v>108</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="32">
         <f>B4*4</f>
         <v>144</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="33">
         <f>B4*5</f>
         <v>180</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="34">
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="32">
         <f>$J$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="51">
         <f>J4*0.6</f>
         <v>18</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="11">
+      <c r="D8" s="52"/>
+      <c r="E8" s="54">
         <f>(B8*5)+C8</f>
         <v>33</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="J11" s="36">
+        <v>2</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="L11" s="38">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="32">
         <f>$J$4*0.25</f>
         <v>7.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="44">
         <f>B12*10</f>
         <v>75</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="44">
         <f>B12*20</f>
         <v>150</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="44">
         <f>B12*30</f>
         <v>225</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="34">
         <f>B12*30</f>
         <v>225</v>
       </c>
       <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="32">
+        <f>$J$4*0.4</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="44">
+        <f>$J$4*40</f>
+        <v>1200</v>
+      </c>
+      <c r="D16" s="34">
+        <f>B16+C16</f>
+        <v>1212</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="40">
+        <f>((J4+(5*J11))*(1.2+(0.2*L11)))*5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="18" t="s">
+      <c r="J18" s="40">
+        <f>(((J4+(5*J11))*0.1)*5)+((J4+(5*J11))*(0.6+(0.2*L11)))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="5">
-        <f>((J4+(5*J11))*(1.2+(0.2*L11)))*5</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="5">
-        <f>(((J4+(5*J11))*0.1)*5)+((J4+(5*J11))*(0.6+(0.2*L11)))</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="5">
-        <f>(J4+(5*J11))*(0.25+(0.2*L11))*30</f>
-        <v>225</v>
+      <c r="J19" s="40">
+        <f>(J4/2+(5*J11))*(0.25+(0.2*L11))*30</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="34">
+        <f>((J4+(5*J11))*(0.4+(0.2*L11)))+((J4+(5*J11))*(40+(0.2*L11)))</f>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,269 +1762,757 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>500</v>
+      </c>
+      <c r="C4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <f>H27+(H27*1.5)+(H27*0.3)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F4" s="67">
+        <f>(F21+F26+F31)</f>
+        <v>232</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="I4" s="6"/>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>500</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="67">
+        <f>B4+(H21*(H25/2))</f>
+        <v>1700</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="54">
+        <f>F6-(F4*(H25/2.5))</f>
+        <v>957.59999999999991</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="24"/>
+      <c r="K13" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="K14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="K15" s="31">
+        <f>B21+(7*K10)</f>
+        <v>350</v>
+      </c>
+      <c r="L15" s="32">
+        <f>C21+(1*K10)</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="32">
+        <f>D21+(2*K10)</f>
+        <v>20</v>
+      </c>
+      <c r="N15" s="33">
+        <f>E21+(1*K10/2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="31">
+        <f>B26+(5*K10)</f>
+        <v>200</v>
+      </c>
+      <c r="L20" s="32">
+        <f>C26+(1.5*K10)</f>
+        <v>20</v>
+      </c>
+      <c r="M20" s="32">
+        <f>D26+(2*K10)</f>
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="N20" s="33">
+        <f>E26+(1*K10/2)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="13">
-        <f>H22+(H22*1.5)+(H22*0.3)</f>
-        <v>11.2</v>
-      </c>
-      <c r="F4" s="11">
-        <f>(F16+F21+F26)</f>
-        <v>466</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F6" s="11">
-        <f>B4+(H16*(H20/2))</f>
-        <v>1700</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="11">
-        <f>F6-(F4*(H20/2.5))</f>
-        <v>208.79999999999995</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31">
+        <v>350</v>
+      </c>
+      <c r="C21" s="32">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32">
+        <v>20</v>
+      </c>
+      <c r="E21" s="32">
+        <v>5</v>
+      </c>
+      <c r="F21" s="34">
+        <f>C21+D21 *H27</f>
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="L24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="N24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
+    </row>
+    <row r="25" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H25" s="4">
+        <v>8</v>
+      </c>
+      <c r="K25" s="31">
+        <f>B31+(62.5*K10)</f>
+        <v>1000</v>
+      </c>
+      <c r="L25" s="32">
+        <f>C31+(5*K10)</f>
+        <v>50</v>
+      </c>
+      <c r="M25" s="32">
+        <f>D31+(1.5*K10)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>150</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="N25" s="33">
+        <f>E31+(2*K10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="31">
+        <v>200</v>
+      </c>
+      <c r="C26" s="32">
         <v>20</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D26" s="32">
+        <v>30</v>
+      </c>
+      <c r="E26" s="32">
         <v>5</v>
       </c>
-      <c r="F16" s="5">
-        <f>C16+D16 *H22</f>
-        <v>90</v>
-      </c>
-      <c r="H16" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="F26" s="34">
+        <f>((C26*2)+D26) * H27</f>
+        <v>140</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="K30" s="31">
+        <f>B36+(500*K10)</f>
+        <v>30000</v>
+      </c>
+      <c r="L30" s="32">
+        <f>C36+(10*K10)</f>
         <v>100</v>
       </c>
-      <c r="C21" s="2">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="32">
+        <v>50</v>
+      </c>
+      <c r="D31" s="32">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="E31" s="32">
         <v>5</v>
       </c>
-      <c r="F21" s="5">
-        <f>((C21*2)+D21) * H22</f>
-        <v>280</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>300</v>
-      </c>
-      <c r="C26" s="2">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5">
-        <f xml:space="preserve"> (C26+D26)*H22*0.3</f>
-        <v>96</v>
-      </c>
+      <c r="F31" s="34">
+        <f xml:space="preserve"> (C31+D31)*H27*0.3</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="31">
+        <v>30000</v>
+      </c>
+      <c r="C36" s="32">
+        <v>100</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:E8"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <f>500+(I14*J14)</f>
+        <v>800</v>
+      </c>
+      <c r="C4" s="8">
+        <f>30+(I9*J9)</f>
+        <v>45</v>
+      </c>
+      <c r="D4" s="8">
+        <f>5+(I10*J10)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <f>5+(I12*J12)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <f>10+(I12*J12)</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <f>20+(I12*J12)</f>
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <f>10+(I11*J11)</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="8">
+        <v>150</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
-    <sheet name="몬스터 대미지 밸런스" sheetId="2" r:id="rId2"/>
-    <sheet name="버프 테스트" sheetId="3" r:id="rId3"/>
+    <sheet name="버프 테스트" sheetId="3" r:id="rId2"/>
+    <sheet name="몬스터 대미지 밸런스" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>스킬 계수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 학습, 강화 효과[버프, 방어력, 실드] 예상으로 전체 스테이지 횟수 /2.5로 계산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4번 스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,14 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지당 몬스터 능력치상승필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 당 보스의 능력치 상승 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -432,6 +420,33 @@
   </si>
   <si>
     <t>몬스터 기본 스팩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 학습, 강화 효과[버프, 실드] 예상으로 전체 스테이지 횟수 /2.5로 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전 전 까지 유저 체력 예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" = (총공격-(방어력*타격 받은 횟수))"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" = (캐릭터 체력+(회복양/(스테이지 진행 양/1)))"</t>
+  </si>
+  <si>
+    <t>타수 마다 방어력만큼 감소시켜 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 진행2회마다 회복 받는다는 가정으로 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"= 예상 체력-(총 타격 대미지*(진행 스테이지/2.5))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1129,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,290 +1496,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="2:13" ht="39" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="J3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32">
-        <f>$J$4*1.2</f>
+      <c r="C4" s="32">
+        <f>$K$4*1.2</f>
         <v>36</v>
       </c>
-      <c r="C4" s="32">
-        <f>B4</f>
+      <c r="D4" s="32">
+        <f>C4</f>
         <v>36</v>
       </c>
-      <c r="D4" s="32">
-        <f>B4*2</f>
+      <c r="E4" s="32">
+        <f>C4*2</f>
         <v>72</v>
       </c>
-      <c r="E4" s="32">
-        <f>B4*3</f>
+      <c r="F4" s="32">
+        <f>C4*3</f>
         <v>108</v>
       </c>
-      <c r="F4" s="32">
-        <f>B4*4</f>
+      <c r="G4" s="32">
+        <f>C4*4</f>
         <v>144</v>
       </c>
-      <c r="G4" s="33">
-        <f>B4*5</f>
+      <c r="H4" s="33">
+        <f>C4*5</f>
         <v>180</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="34">
+      <c r="K4" s="34">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
-        <f>$J$4*0.1</f>
+      <c r="C8" s="32">
+        <f>$K$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="51">
-        <f>J4*0.6</f>
+      <c r="D8" s="54">
+        <f>K4*0.6</f>
         <v>18</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="54">
-        <f>(B8*5)+C8</f>
+      <c r="E8" s="55"/>
+      <c r="F8" s="57">
+        <f>(C8*5)+D8</f>
         <v>33</v>
       </c>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I10" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32">
+        <f>$K$4*0.25</f>
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="44">
+        <f>C12*10</f>
+        <v>75</v>
+      </c>
+      <c r="E12" s="44">
+        <f>C12*20</f>
+        <v>150</v>
+      </c>
+      <c r="F12" s="44">
+        <f>C12*30</f>
+        <v>225</v>
+      </c>
+      <c r="G12" s="34">
+        <f>C12*30</f>
+        <v>225</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="32">
+        <f>$K$4*0.4</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="44">
+        <f>$K$4*40</f>
+        <v>1200</v>
+      </c>
+      <c r="E16" s="34">
+        <f>C16+D16</f>
+        <v>1212</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="40">
+        <f>((K4+(5*K11))*(1.2+(0.2*M11)))*5</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="40">
+        <f>(((K4+(5*K11))*0.1)*5)+((K4+(5*K11))*(0.6+(0.2*M11)))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="40">
+        <f>(K4/2+(5*K11))*(0.25+(0.2*M11))*30</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="36">
-        <v>2</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="32">
-        <f>$J$4*0.25</f>
-        <v>7.5</v>
-      </c>
-      <c r="C12" s="44">
-        <f>B12*10</f>
-        <v>75</v>
-      </c>
-      <c r="D12" s="44">
-        <f>B12*20</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="44">
-        <f>B12*30</f>
-        <v>225</v>
-      </c>
-      <c r="F12" s="34">
-        <f>B12*30</f>
-        <v>225</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="32">
-        <f>$J$4*0.4</f>
-        <v>12</v>
-      </c>
-      <c r="C16" s="44">
-        <f>$J$4*40</f>
-        <v>1200</v>
-      </c>
-      <c r="D16" s="34">
-        <f>B16+C16</f>
+      <c r="K20" s="34">
+        <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
         <v>1212</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="40">
-        <f>((J4+(5*J11))*(1.2+(0.2*L11)))*5</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="40">
-        <f>(((J4+(5*J11))*0.1)*5)+((J4+(5*J11))*(0.6+(0.2*L11)))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="40">
-        <f>(J4/2+(5*J11))*(0.25+(0.2*L11))*30</f>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="34">
-        <f>((J4+(5*J11))*(0.4+(0.2*L11)))+((J4+(5*J11))*(40+(0.2*L11)))</f>
-        <v>1616</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,10 +1790,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q36"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <f>500+(I14*J14)</f>
+        <v>800</v>
+      </c>
+      <c r="C4" s="8">
+        <f>30+(I9*J9)</f>
+        <v>55</v>
+      </c>
+      <c r="D4" s="8">
+        <f>5+(I10*J10)</f>
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <f>5+(I12*J12)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <f>10+(I12*J12)</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <f>20+(I12*J12)</f>
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <f>10+(I11*J11)</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="8">
+        <v>150</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AA37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1785,735 +2022,725 @@
     <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="25" max="25" width="19.75" customWidth="1"/>
+    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
-        <v>500</v>
-      </c>
-      <c r="C4" s="8">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
-        <f>H27+(H27*1.5)+(H27*0.3)</f>
-        <v>5.6</v>
-      </c>
-      <c r="F4" s="67">
-        <f>(F21+F26+F31)</f>
-        <v>232</v>
-      </c>
-      <c r="G4" s="68"/>
-      <c r="I4" s="6"/>
-      <c r="K4" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <f>T9</f>
+        <v>1100</v>
+      </c>
+      <c r="C5" s="8">
+        <f>U9</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D5" s="8">
+        <f>V9</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="10">
+        <f>H28+(H28*1.5)+(H28*0.3)</f>
+        <v>28</v>
+      </c>
+      <c r="F5" s="70">
+        <f>((O16-(D5*H28))+(O21-(D5*H28))+(O26-(D5*H28)))</f>
+        <v>972</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="67">
-        <f>B4+(H21*(H25/2))</f>
+      <c r="F6" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="70">
+        <f>B5+(H22*(H26/2))</f>
         <v>1700</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="71"/>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="54">
-        <f>F6-(F4*(H25/2.5))</f>
-        <v>957.59999999999991</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="11" t="s">
+      <c r="F8" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="57">
+        <f>F7-(F5*(H26/2.5))</f>
+        <v>144.79999999999995</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="47">
+        <f>500+(Z19*AA19)</f>
+        <v>1100</v>
+      </c>
+      <c r="U9" s="47">
+        <f>30+(Z14*AA14)</f>
+        <v>60</v>
+      </c>
+      <c r="V9" s="47">
+        <f>5+(Z15*AA15)</f>
+        <v>17</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="K10" s="8">
+      <c r="Y10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="K11" s="8">
+        <f>H26</f>
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="T12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="K12" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="47">
+        <f>5+(Z17*AA17)</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="47">
+        <f>10+(Z17*AA17)</f>
+        <v>8</v>
+      </c>
+      <c r="V13" s="47">
+        <f>20+(Z17*AA17)</f>
+        <v>18</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
+      <c r="Z13" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="24"/>
-      <c r="K13" s="29" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="24"/>
+      <c r="K14" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="Y14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="K14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="K15" s="31">
-        <f>B21+(7*K10)</f>
+      <c r="K15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="K16" s="31">
+        <f>B22+(7*K11)</f>
+        <v>378</v>
+      </c>
+      <c r="L16" s="32">
+        <f>C22+(1*K11)</f>
+        <v>14</v>
+      </c>
+      <c r="M16" s="32">
+        <f>D22+(2*K11)</f>
+        <v>28</v>
+      </c>
+      <c r="N16" s="33">
+        <f>E22+(1*K11/2)</f>
+        <v>7</v>
+      </c>
+      <c r="O16" s="34">
+        <f>L16+M16 *$H$28</f>
+        <v>294</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="25"/>
+      <c r="T17" s="47">
+        <f>10+(Z16*AA16)</f>
+        <v>10</v>
+      </c>
+      <c r="Y17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AA18" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" s="47">
+        <v>150</v>
+      </c>
+      <c r="AA19" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="31">
+        <f>B27+(5*K11)</f>
+        <v>220</v>
+      </c>
+      <c r="L21" s="32">
+        <f>C27+(1.5*K11)</f>
+        <v>26</v>
+      </c>
+      <c r="M21" s="32">
+        <f>D27+(2*K11)</f>
+        <v>38</v>
+      </c>
+      <c r="N21" s="33">
+        <f>E27+(1*K11/2)</f>
+        <v>7</v>
+      </c>
+      <c r="O21" s="34">
+        <f>((L21*2)+M21) * $H$28</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="31">
         <v>350</v>
       </c>
-      <c r="L15" s="32">
-        <f>C21+(1*K10)</f>
+      <c r="C22" s="32">
         <v>10</v>
       </c>
-      <c r="M15" s="32">
-        <f>D21+(2*K10)</f>
+      <c r="D22" s="32">
         <v>20</v>
       </c>
-      <c r="N15" s="33">
-        <f>E21+(1*K10/2)</f>
+      <c r="E22" s="32">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="29" t="s">
+      <c r="F22" s="34">
+        <f>C22+D22 *$H$28</f>
+        <v>210</v>
+      </c>
+      <c r="H22" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" s="4">
+        <f>SUM(AA19,AA18,AA17,AA16,AA14,AA15,AA11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
+      <c r="H25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="31">
+        <f>B32+(62.5*K11)</f>
+        <v>1250</v>
+      </c>
+      <c r="L26" s="32">
+        <f>C32+(5*K11)</f>
+        <v>70</v>
+      </c>
+      <c r="M26" s="32">
+        <f>D32+(1.5*K11)</f>
+        <v>26</v>
+      </c>
+      <c r="N26" s="33">
+        <f>E32+(2*K11)</f>
         <v>13</v>
       </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="O26" s="34">
+        <f xml:space="preserve"> (L26+M26)*$H$28*0.3</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="31">
+        <v>200</v>
+      </c>
+      <c r="C27" s="32">
+        <v>20</v>
+      </c>
+      <c r="D27" s="32">
+        <v>30</v>
+      </c>
+      <c r="E27" s="32">
+        <v>5</v>
+      </c>
+      <c r="F27" s="34">
+        <f>((C27*2)+D27) * $H$28</f>
+        <v>700</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="E31" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="F31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="31">
+        <f>B37+(500*K11)</f>
+        <v>32000</v>
+      </c>
+      <c r="L31" s="32">
+        <f>C37+(10*K11)</f>
+        <v>140</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="32">
         <v>20</v>
       </c>
-      <c r="K20" s="31">
-        <f>B26+(5*K10)</f>
-        <v>200</v>
-      </c>
-      <c r="L20" s="32">
-        <f>C26+(1.5*K10)</f>
-        <v>20</v>
-      </c>
-      <c r="M20" s="32">
-        <f>D26+(2*K10)</f>
-        <v>30</v>
-      </c>
-      <c r="N20" s="33">
-        <f>E26+(1*K10/2)</f>
+      <c r="E32" s="32">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31">
-        <v>350</v>
-      </c>
-      <c r="C21" s="32">
-        <v>10</v>
-      </c>
-      <c r="D21" s="32">
-        <v>20</v>
-      </c>
-      <c r="E21" s="32">
-        <v>5</v>
-      </c>
-      <c r="F21" s="34">
-        <f>C21+D21 *H27</f>
-        <v>50</v>
-      </c>
-      <c r="H21" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="4">
-        <v>8</v>
-      </c>
-      <c r="K25" s="31">
-        <f>B31+(62.5*K10)</f>
-        <v>1000</v>
-      </c>
-      <c r="L25" s="32">
-        <f>C31+(5*K10)</f>
-        <v>50</v>
-      </c>
-      <c r="M25" s="32">
-        <f>D31+(1.5*K10)</f>
-        <v>20</v>
-      </c>
-      <c r="N25" s="33">
-        <f>E31+(2*K10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="31">
-        <v>200</v>
-      </c>
-      <c r="C26" s="32">
-        <v>20</v>
-      </c>
-      <c r="D26" s="32">
-        <v>30</v>
-      </c>
-      <c r="E26" s="32">
-        <v>5</v>
-      </c>
-      <c r="F26" s="34">
-        <f>((C26*2)+D26) * H27</f>
-        <v>140</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="29" t="s">
+      <c r="F32" s="34">
+        <f xml:space="preserve"> (C32+D32)*$H$28*0.3</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="H36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="31">
-        <f>B36+(500*K10)</f>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="31">
         <v>30000</v>
       </c>
-      <c r="L30" s="32">
-        <f>C36+(10*K10)</f>
+      <c r="C37" s="32">
         <v>100</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-    </row>
-    <row r="31" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="32">
-        <v>50</v>
-      </c>
-      <c r="D31" s="32">
-        <v>20</v>
-      </c>
-      <c r="E31" s="32">
-        <v>5</v>
-      </c>
-      <c r="F31" s="34">
-        <f xml:space="preserve"> (C31+D31)*H27*0.3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="31">
-        <v>30000</v>
-      </c>
-      <c r="C36" s="32">
-        <v>100</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:E9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
-        <f>500+(I14*J14)</f>
-        <v>800</v>
-      </c>
-      <c r="C4" s="8">
-        <f>30+(I9*J9)</f>
-        <v>45</v>
-      </c>
-      <c r="D4" s="8">
-        <f>5+(I10*J10)</f>
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="8">
-        <v>100</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
-        <f>5+(I12*J12)</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
-        <f>10+(I12*J12)</f>
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f>20+(I12*J12)</f>
-        <v>18</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="8">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
-        <f>10+(I11*J11)</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="8">
-        <v>150</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J18" s="4">
-        <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
-    <sheet name="몬스터 대미지 밸런스" sheetId="2" r:id="rId2"/>
-    <sheet name="버프 테스트" sheetId="3" r:id="rId3"/>
+    <sheet name="버프 테스트" sheetId="3" r:id="rId2"/>
+    <sheet name="몬스터 대미지 밸런스" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>스킬 계수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 학습, 강화 효과[버프, 방어력, 실드] 예상으로 전체 스테이지 횟수 /2.5로 계산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4번 스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,14 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지당 몬스터 능력치상승필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 당 보스의 능력치 상승 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -432,6 +420,33 @@
   </si>
   <si>
     <t>몬스터 기본 스팩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 학습, 강화 효과[버프, 실드] 예상으로 전체 스테이지 횟수 /2.5로 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전 전 까지 유저 체력 예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" = (총공격-(방어력*타격 받은 횟수))"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" = (캐릭터 체력+(회복양/(스테이지 진행 양/1)))"</t>
+  </si>
+  <si>
+    <t>타수 마다 방어력만큼 감소시켜 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 진행2회마다 회복 받는다는 가정으로 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"= 예상 체력-(총 타격 대미지*(진행 스테이지/2.5))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,184 +1025,196 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,290 +1496,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="2:13" ht="39" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="J3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52">
-        <f>$J$4*1.2</f>
+      <c r="C4" s="32">
+        <f>$K$4*1.2</f>
         <v>36</v>
       </c>
-      <c r="C4" s="52">
-        <f>B4</f>
+      <c r="D4" s="32">
+        <f>C4</f>
         <v>36</v>
       </c>
-      <c r="D4" s="52">
-        <f>B4*2</f>
+      <c r="E4" s="32">
+        <f>C4*2</f>
         <v>72</v>
       </c>
-      <c r="E4" s="52">
-        <f>B4*3</f>
+      <c r="F4" s="32">
+        <f>C4*3</f>
         <v>108</v>
       </c>
-      <c r="F4" s="52">
-        <f>B4*4</f>
+      <c r="G4" s="32">
+        <f>C4*4</f>
         <v>144</v>
       </c>
-      <c r="G4" s="53">
-        <f>B4*5</f>
+      <c r="H4" s="33">
+        <f>C4*5</f>
         <v>180</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="J4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="54">
+      <c r="K4" s="34">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52">
-        <f>$J$4*0.1</f>
+      <c r="C8" s="32">
+        <f>$K$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="67">
-        <f>J4*0.6</f>
+      <c r="D8" s="54">
+        <f>K4*0.6</f>
         <v>18</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="28">
-        <f>(B8*5)+C8</f>
+      <c r="E8" s="55"/>
+      <c r="F8" s="57">
+        <f>(C8*5)+D8</f>
         <v>33</v>
       </c>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I10" s="49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32">
+        <f>$K$4*0.25</f>
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="44">
+        <f>C12*10</f>
+        <v>75</v>
+      </c>
+      <c r="E12" s="44">
+        <f>C12*20</f>
+        <v>150</v>
+      </c>
+      <c r="F12" s="44">
+        <f>C12*30</f>
+        <v>225</v>
+      </c>
+      <c r="G12" s="34">
+        <f>C12*30</f>
+        <v>225</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="32">
+        <f>$K$4*0.4</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="44">
+        <f>$K$4*40</f>
+        <v>1200</v>
+      </c>
+      <c r="E16" s="34">
+        <f>C16+D16</f>
+        <v>1212</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="40">
+        <f>((K4+(5*K11))*(1.2+(0.2*M11)))*5</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="40">
+        <f>(((K4+(5*K11))*0.1)*5)+((K4+(5*K11))*(0.6+(0.2*M11)))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="40">
+        <f>(K4/2+(5*K11))*(0.25+(0.2*M11))*30</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="56">
-        <v>2</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="52">
-        <f>$J$4*0.25</f>
-        <v>7.5</v>
-      </c>
-      <c r="C12" s="69">
-        <f>B12*10</f>
-        <v>75</v>
-      </c>
-      <c r="D12" s="69">
-        <f>B12*20</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="69">
-        <f>B12*30</f>
-        <v>225</v>
-      </c>
-      <c r="F12" s="54">
-        <f>B12*30</f>
-        <v>225</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="52">
-        <f>$J$4*0.4</f>
-        <v>12</v>
-      </c>
-      <c r="C16" s="69">
-        <f>$J$4*40</f>
-        <v>1200</v>
-      </c>
-      <c r="D16" s="54">
-        <f>B16+C16</f>
+      <c r="K20" s="34">
+        <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
         <v>1212</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="60">
-        <f>((J4+(5*J11))*(1.2+(0.2*L11)))*5</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="60">
-        <f>(((J4+(5*J11))*0.1)*5)+((J4+(5*J11))*(0.6+(0.2*L11)))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="60">
-        <f>(J4/2+(5*J11))*(0.25+(0.2*L11))*30</f>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="54">
-        <f>((J4+(5*J11))*(0.4+(0.2*L11)))+((J4+(5*J11))*(40+(0.2*L11)))</f>
-        <v>1616</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,10 +1790,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q36"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <f>500+(I14*J14)</f>
+        <v>800</v>
+      </c>
+      <c r="C4" s="8">
+        <f>30+(I9*J9)</f>
+        <v>55</v>
+      </c>
+      <c r="D4" s="8">
+        <f>5+(I10*J10)</f>
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <f>5+(I12*J12)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <f>10+(I12*J12)</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <f>20+(I12*J12)</f>
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <f>10+(I11*J11)</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="8">
+        <v>150</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AA37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1785,735 +2022,725 @@
     <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="25" max="25" width="19.75" customWidth="1"/>
+    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="22">
-        <v>500</v>
-      </c>
-      <c r="C4" s="8">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="G4" s="50"/>
+      <c r="H4" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <f>T9</f>
+        <v>1100</v>
+      </c>
+      <c r="C5" s="8">
+        <f>U9</f>
+        <v>60</v>
+      </c>
+      <c r="D5" s="8">
+        <f>V9</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="10">
+        <f>H28+(H28*1.5)+(H28*0.3)</f>
+        <v>28</v>
+      </c>
+      <c r="F5" s="70">
+        <f>((O16-(D5*H28))+(O21-(D5*H28))+(O26-(D5*H28)))</f>
+        <v>972</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="70">
+        <f>B5+(H22*(H26/2))</f>
+        <v>1700</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="57">
+        <f>F7-(F5*(H26/2.5))</f>
+        <v>144.79999999999995</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="47">
+        <f>500+(Z19*AA19)</f>
+        <v>1100</v>
+      </c>
+      <c r="U9" s="47">
+        <f>30+(Z14*AA14)</f>
+        <v>60</v>
+      </c>
+      <c r="V9" s="47">
+        <f>5+(Z15*AA15)</f>
+        <v>17</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="K11" s="8">
+        <f>H26</f>
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="T12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="47">
+        <f>5+(Z17*AA17)</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="47">
+        <f>10+(Z17*AA17)</f>
+        <v>8</v>
+      </c>
+      <c r="V13" s="47">
+        <f>20+(Z17*AA17)</f>
+        <v>18</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="24"/>
+      <c r="K14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="47">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
-        <f>H27+(H27*1.5)+(H27*0.3)</f>
-        <v>5.6</v>
-      </c>
-      <c r="F4" s="14">
-        <f>(F21+F26+F31)</f>
-        <v>232</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="I4" s="6"/>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="14">
-        <f>B4+(H21*(H25/2))</f>
-        <v>1700</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="28">
-        <f>F6-(F4*(H25/2.5))</f>
-        <v>957.59999999999991</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="K10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-    </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="42"/>
-      <c r="K13" s="49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+      <c r="AA14" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="K14" s="17" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="K15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N15" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="K15" s="51">
-        <f>B21+(7*K10)</f>
-        <v>364</v>
-      </c>
-      <c r="L15" s="52">
-        <f>C21+(1*K10)</f>
-        <v>12</v>
-      </c>
-      <c r="M15" s="52">
-        <f>D21+(2*K10)</f>
-        <v>24</v>
-      </c>
-      <c r="N15" s="53">
-        <f>E21+(1*K10/2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
-        <v>55</v>
-      </c>
+      <c r="O15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="49" t="s">
+      <c r="F16" s="28"/>
+      <c r="K16" s="31">
+        <f>B22+(7*K11)</f>
+        <v>378</v>
+      </c>
+      <c r="L16" s="32">
+        <f>C22+(1*K11)</f>
+        <v>14</v>
+      </c>
+      <c r="M16" s="32">
+        <f>D22+(2*K11)</f>
+        <v>28</v>
+      </c>
+      <c r="N16" s="33">
+        <f>E22+(1*K11/2)</f>
+        <v>7</v>
+      </c>
+      <c r="O16" s="34">
+        <f>L16+M16 *$H$28</f>
+        <v>294</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="25"/>
+      <c r="T17" s="47">
+        <f>10+(Z16*AA16)</f>
+        <v>10</v>
+      </c>
+      <c r="Y17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AA18" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49" t="s">
+      <c r="Y19" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" s="47">
+        <v>150</v>
+      </c>
+      <c r="AA19" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N20" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="O20" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="51">
-        <f>B26+(5*K10)</f>
+      <c r="K21" s="31">
+        <f>B27+(5*K11)</f>
+        <v>220</v>
+      </c>
+      <c r="L21" s="32">
+        <f>C27+(1.5*K11)</f>
+        <v>26</v>
+      </c>
+      <c r="M21" s="32">
+        <f>D27+(2*K11)</f>
+        <v>38</v>
+      </c>
+      <c r="N21" s="33">
+        <f>E27+(1*K11/2)</f>
+        <v>7</v>
+      </c>
+      <c r="O21" s="34">
+        <f>((L21*2)+M21) * $H$28</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="31">
+        <v>350</v>
+      </c>
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="D22" s="32">
+        <v>20</v>
+      </c>
+      <c r="E22" s="32">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34">
+        <f>C22+D22 *$H$28</f>
         <v>210</v>
       </c>
-      <c r="L20" s="52">
-        <f>C26+(1.5*K10)</f>
+      <c r="H22" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" s="4">
+        <f>SUM(AA19,AA18,AA17,AA16,AA14,AA15,AA11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="52">
-        <f>D26+(2*K10)</f>
-        <v>34</v>
-      </c>
-      <c r="N20" s="53">
-        <f>E26+(1*K10/2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="51">
-        <v>350</v>
-      </c>
-      <c r="C21" s="52">
+      <c r="K25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="31">
+        <f>B32+(62.5*K11)</f>
+        <v>1250</v>
+      </c>
+      <c r="L26" s="32">
+        <f>C32+(5*K11)</f>
+        <v>70</v>
+      </c>
+      <c r="M26" s="32">
+        <f>D32+(1.5*K11)</f>
+        <v>26</v>
+      </c>
+      <c r="N26" s="33">
+        <f>E32+(2*K11)</f>
+        <v>13</v>
+      </c>
+      <c r="O26" s="34">
+        <f xml:space="preserve"> (L26+M26)*$H$28*0.3</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="31">
+        <v>200</v>
+      </c>
+      <c r="C27" s="32">
+        <v>20</v>
+      </c>
+      <c r="D27" s="32">
+        <v>30</v>
+      </c>
+      <c r="E27" s="32">
+        <v>5</v>
+      </c>
+      <c r="F27" s="34">
+        <f>((C27*2)+D27) * $H$28</f>
+        <v>700</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="4">
         <v>10</v>
       </c>
-      <c r="D21" s="52">
+      <c r="K28" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="31">
+        <f>B37+(500*K11)</f>
+        <v>32000</v>
+      </c>
+      <c r="L31" s="32">
+        <f>C37+(10*K11)</f>
+        <v>140</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="32">
         <v>20</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E32" s="32">
         <v>5</v>
       </c>
-      <c r="F21" s="54">
-        <f>C21+D21 *H27</f>
-        <v>50</v>
-      </c>
-      <c r="H21" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="4">
-        <v>8</v>
-      </c>
-      <c r="K25" s="51">
-        <f>B31+(62.5*K10)</f>
-        <v>1125</v>
-      </c>
-      <c r="L25" s="52">
-        <f>C31+(5*K10)</f>
+      <c r="F32" s="34">
+        <f xml:space="preserve"> (C32+D32)*$H$28*0.3</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="52">
-        <f>D31+(1.5*K10)</f>
-        <v>23</v>
-      </c>
-      <c r="N25" s="53">
-        <f>E31+(2*K10)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
-        <v>200</v>
-      </c>
-      <c r="C26" s="52">
-        <v>20</v>
-      </c>
-      <c r="D26" s="52">
-        <v>30</v>
-      </c>
-      <c r="E26" s="52">
-        <v>5</v>
-      </c>
-      <c r="F26" s="54">
-        <f>((C26*2)+D26) * H27</f>
-        <v>140</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="49" t="s">
+      <c r="C36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="F36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="G36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="H36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="51">
-        <f>B36+(500*K10)</f>
-        <v>31000</v>
-      </c>
-      <c r="L30" s="52">
-        <f>C36+(10*K10)</f>
-        <v>120</v>
-      </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
-    </row>
-    <row r="31" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="51">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="52">
-        <v>50</v>
-      </c>
-      <c r="D31" s="52">
-        <v>20</v>
-      </c>
-      <c r="E31" s="52">
-        <v>5</v>
-      </c>
-      <c r="F31" s="54">
-        <f xml:space="preserve"> (C31+D31)*H27*0.3</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="51">
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="31">
         <v>30000</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C37" s="32">
         <v>100</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:E9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
-        <f>500+(I14*J14)</f>
-        <v>800</v>
-      </c>
-      <c r="C4" s="8">
-        <f>30+(I9*J9)</f>
-        <v>45</v>
-      </c>
-      <c r="D4" s="8">
-        <f>5+(I10*J10)</f>
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="8">
-        <v>100</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
-        <f>5+(I12*J12)</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
-        <f>10+(I12*J12)</f>
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f>20+(I12*J12)</f>
-        <v>18</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="8">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
-        <f>10+(I11*J11)</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="8">
-        <v>150</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J18" s="4">
-        <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지당 체력7+, 공격력1 1+ 공격력2 2+, 스테이자 2당 방어력1+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지당 체력62.5+, 공격력1 5+, 공격력2 1.5+, 스테이지 당 방어력2+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,6 +443,10 @@
   </si>
   <si>
     <t>"= 예상 체력-(총 타격 대미지*(진행 스테이지/2.5))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지당 체력7+, 공격력1 1+ 공격력2 2+, 스테이지 2당 방어력1+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1138,6 +1138,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1545,10 +1545,10 @@
       <c r="H3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="50"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
@@ -1593,14 +1593,14 @@
       <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -1610,21 +1610,21 @@
         <f>$K$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="55">
         <f>K4*0.6</f>
         <v>18</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="57">
+      <c r="E8" s="56"/>
+      <c r="F8" s="58">
         <f>(C8*5)+D8</f>
         <v>33</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J10" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1688,16 +1688,16 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="43" t="s">
@@ -1707,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>41</v>
@@ -1736,7 +1736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="17" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="17" t="s">
         <v>51</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="17" t="s">
         <v>52</v>
       </c>
@@ -1763,13 +1763,19 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="20" spans="10:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J20" s="41" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="34">
         <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
         <v>1212</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>225/30</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1813,10 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1824,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1841,26 +1847,26 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="8">
         <v>100</v>
@@ -1871,16 +1877,16 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -1898,18 +1904,18 @@
         <v>18</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="8">
         <v>5</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="8">
         <v>3</v>
@@ -1931,10 +1937,10 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -1949,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="8">
         <v>-1</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="13">
         <v>0.2</v>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="8">
         <v>150</v>
@@ -1982,7 +1988,7 @@
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
@@ -2001,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2036,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2052,12 +2058,12 @@
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="74" t="s">
-        <v>102</v>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
@@ -2077,60 +2083,60 @@
         <f>H28+(H28*1.5)+(H28*0.3)</f>
         <v>28</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="71">
         <f>((O16-(D5*H28))+(O21-(D5*H28))+(O26-(D5*H28)))</f>
         <v>972</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="72"/>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="72" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="70">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="71">
         <f>B5+(H22*(H26/2))</f>
         <v>1700</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="72"/>
       <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" t="s">
         <v>105</v>
-      </c>
-      <c r="T7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" t="s">
-        <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>9</v>
@@ -2142,21 +2148,21 @@
         <v>11</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="57">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="58">
         <f>F7-(F5*(H26/2.5))</f>
         <v>144.79999999999995</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T9" s="47">
         <f>500+(Z19*AA19)</f>
@@ -2171,7 +2177,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2179,29 +2185,29 @@
         <v>23</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z10" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="69"/>
+      <c r="B11" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="70"/>
       <c r="K11" s="8">
         <f>H26</f>
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="47">
         <v>100</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2228,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="Y12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="1"/>
     </row>
@@ -2241,7 +2247,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="T13" s="47">
         <f>5+(Z17*AA17)</f>
@@ -2256,13 +2262,13 @@
         <v>18</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2310,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="Y15" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="47">
         <v>3</v>
@@ -2346,10 +2352,10 @@
         <v>294</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="47">
         <v>1</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="17" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2371,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="Y17" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="47">
         <v>-1</v>
@@ -2385,7 +2391,7 @@
         <v>69</v>
       </c>
       <c r="Y18" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="13">
         <v>0.2</v>
@@ -2396,13 +2402,13 @@
     </row>
     <row r="19" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Y19" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z19" s="47">
         <v>150</v>
@@ -2495,12 +2501,12 @@
         <v>300</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA23" s="4">
         <f>SUM(AA19,AA18,AA17,AA16,AA14,AA15,AA11)</f>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 능력히</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1당 수치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,6 +443,10 @@
   </si>
   <si>
     <t>스테이지당 체력7+, 공격력1 1+ 공격력2 2+, 스테이지 2당 방어력1+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 능력치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1499,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1624,7 @@
     <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J10" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1650,13 +1650,13 @@
         <v>45</v>
       </c>
       <c r="K11" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="38">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K17" s="40">
         <f>((K4+(5*K11))*(1.2+(0.2*M11)))*5</f>
-        <v>180</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K18" s="40">
         <f>(((K4+(5*K11))*0.1)*5)+((K4+(5*K11))*(0.6+(0.2*M11)))</f>
-        <v>33</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K19" s="40">
         <f>(K4/2+(5*K11))*(0.25+(0.2*M11))*30</f>
-        <v>112.5</v>
+        <v>3052.5</v>
       </c>
     </row>
     <row r="20" spans="10:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K20" s="34">
         <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
-        <v>1212</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,10 +1813,10 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1855,15 +1855,15 @@
         <v>72</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>80</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>82</v>
@@ -1907,10 +1907,10 @@
         <v>72</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>75</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
   <dimension ref="B2:AA37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2036,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="G5" s="72"/>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
       </c>
       <c r="G7" s="72"/>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="G8" s="74"/>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>9</v>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G9" s="59"/>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" s="47">
         <f>500+(Z19*AA19)</f>
@@ -2188,15 +2188,15 @@
         <v>72</v>
       </c>
       <c r="Z10" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="70"/>
       <c r="K11" s="8">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y11" s="47" t="s">
         <v>80</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2247,7 +2247,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T13" s="47">
         <f>5+(Z17*AA17)</f>
@@ -2265,10 +2265,10 @@
         <v>72</v>
       </c>
       <c r="Z13" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2366,7 +2366,7 @@
     </row>
     <row r="17" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="19" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>17</v>
@@ -2501,7 +2501,7 @@
         <v>300</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1650,13 +1650,13 @@
         <v>45</v>
       </c>
       <c r="K11" s="36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="38">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K17" s="40">
         <f>((K4+(5*K11))*(1.2+(0.2*M11)))*5</f>
-        <v>980</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K18" s="40">
         <f>(((K4+(5*K11))*0.1)*5)+((K4+(5*K11))*(0.6+(0.2*M11)))</f>
-        <v>189</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K19" s="40">
         <f>(K4/2+(5*K11))*(0.25+(0.2*M11))*30</f>
-        <v>3052.5</v>
+        <v>765.00000000000011</v>
       </c>
     </row>
     <row r="20" spans="10:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K20" s="34">
         <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
-        <v>3052</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
@@ -1498,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1799,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1836,15 +1836,15 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <f>500+(I14*J14)</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="C4" s="8">
         <f>30+(I9*J9)</f>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D4" s="8">
         <f>5+(I10*J10)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>81</v>
@@ -1893,15 +1893,15 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <f>5+(I12*J12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8">
         <f>10+(I12*J12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <f>20+(I12*J12)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>72</v>
@@ -1921,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1932,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -1961,7 +1961,7 @@
         <v>-1</v>
       </c>
       <c r="J12" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -1983,7 +1983,7 @@
         <v>150</v>
       </c>
       <c r="J14" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
@@ -1994,12 +1994,13 @@
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" s="4">
         <f>SUM(J14,J13,J12,J11,J9,J10,J6)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2007,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2334,7 @@
       <c r="F16" s="28"/>
       <c r="K16" s="31">
         <f>B22+(7*K11)</f>
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="L16" s="32">
         <f>C22+(1*K11)</f>
@@ -2461,7 +2462,7 @@
       </c>
       <c r="K21" s="31">
         <f>B27+(5*K11)</f>
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="L21" s="32">
         <f>C27+(1.5*K11)</f>
@@ -2482,7 +2483,7 @@
     </row>
     <row r="22" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="31">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C22" s="32">
         <v>10</v>
@@ -2583,7 +2584,7 @@
     </row>
     <row r="27" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C27" s="32">
         <v>20</v>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -1499,7 +1499,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2009,7 @@
   <dimension ref="B2:AA37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N16" s="33">
         <f>E22+(1*K11/2)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O16" s="34">
         <f>L16+M16 *$H$28</f>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="N21" s="33">
         <f>E27+(1*K11/2)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O21" s="34">
         <f>((L21*2)+M21) * $H$28</f>
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f>C22+D22 *$H$28</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="K26" s="31">
         <f>B32+(62.5*K11)</f>
-        <v>1250</v>
+        <v>850</v>
       </c>
       <c r="L26" s="32">
         <f>C32+(5*K11)</f>
@@ -2593,7 +2593,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="34">
         <f>((C27*2)+D27) * $H$28</f>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="32" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="31">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C32" s="32">
         <v>50</v>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="스킬계수" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>스킬 계수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -447,6 +447,18 @@
   </si>
   <si>
     <t>캐릭터 능력치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -990,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,21 +1117,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,6 +1150,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,6 +1232,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1515,15 +1548,17 @@
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="17" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="39" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:17" ht="39" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1549,8 +1584,17 @@
         <v>4</v>
       </c>
       <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
@@ -1578,16 +1622,28 @@
         <f>C4*5</f>
         <v>180</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="O4" s="48">
+        <f>K4</f>
+        <v>30</v>
+      </c>
+      <c r="P4" s="79">
+        <f>K4*1.1</f>
+        <v>33</v>
+      </c>
+      <c r="Q4" s="79">
+        <f>K4*1.5</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1602,8 +1658,8 @@
       </c>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="32">
@@ -1621,14 +1677,14 @@
       </c>
       <c r="G8" s="59"/>
     </row>
-    <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J10" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1643,39 +1699,39 @@
       <c r="F11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="77">
         <v>3</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="32">
         <f>$K$4*0.25</f>
         <v>7.5</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <f>C12*10</f>
         <v>75</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <f>C12*20</f>
         <v>150</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="41">
         <f>C12*30</f>
         <v>225</v>
       </c>
@@ -1687,20 +1743,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J13" s="52" t="s">
         <v>48</v>
       </c>
       <c r="K13" s="52"/>
     </row>
-    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J14" s="52" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="52"/>
     </row>
-    <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1709,19 +1765,19 @@
       <c r="D15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="32">
         <f>$K$4*0.4</f>
         <v>12</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <f>$K$4*40</f>
         <v>1200</v>
       </c>
@@ -1732,7 +1788,7 @@
       <c r="J16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1740,7 +1796,7 @@
       <c r="J17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="49">
         <f>((K4+(5*K11))*(1.2+(0.2*M11)))*5</f>
         <v>405</v>
       </c>
@@ -1749,7 +1805,7 @@
       <c r="J18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="49">
         <f>(((K4+(5*K11))*0.1)*5)+((K4+(5*K11))*(0.6+(0.2*M11)))</f>
         <v>76.5</v>
       </c>
@@ -1758,16 +1814,16 @@
       <c r="J19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="49">
         <f>(K4/2+(5*K11))*(0.25+(0.2*M11))*30</f>
         <v>765.00000000000011</v>
       </c>
     </row>
     <row r="20" spans="10:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="47">
         <f>((K4+(5*K11))*(0.4+(0.2*M11)))+((K4+(5*K11))*(40+(0.2*M11)))</f>
         <v>1872</v>
       </c>
@@ -1798,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2008,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2092,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2063,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="51"/>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="46" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2142,10 +2198,10 @@
       <c r="T8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="U8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="48" t="s">
+      <c r="V8" s="45" t="s">
         <v>11</v>
       </c>
       <c r="Y8" t="s">
@@ -2165,15 +2221,15 @@
       <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="44">
         <f>500+(Z19*AA19)</f>
         <v>1100</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="44">
         <f>30+(Z14*AA14)</f>
         <v>60</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="44">
         <f>5+(Z15*AA15)</f>
         <v>17</v>
       </c>
@@ -2188,7 +2244,7 @@
       <c r="Y10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z10" s="48" t="s">
+      <c r="Z10" s="45" t="s">
         <v>83</v>
       </c>
       <c r="AA10" s="11" t="s">
@@ -2207,13 +2263,13 @@
       <c r="T11" t="s">
         <v>89</v>
       </c>
-      <c r="Y11" s="47" t="s">
+      <c r="Y11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="Z11" s="47">
+      <c r="Z11" s="44">
         <v>100</v>
       </c>
-      <c r="AA11" s="47">
+      <c r="AA11" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2250,22 +2306,22 @@
       <c r="K13" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="44">
         <f>5+(Z17*AA17)</f>
         <v>3</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="44">
         <f>10+(Z17*AA17)</f>
         <v>8</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="44">
         <f>20+(Z17*AA17)</f>
         <v>18</v>
       </c>
       <c r="Y13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z13" s="48" t="s">
+      <c r="Z13" s="45" t="s">
         <v>83</v>
       </c>
       <c r="AA13" s="11" t="s">
@@ -2283,13 +2339,13 @@
       <c r="K14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="47" t="s">
+      <c r="Y14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="Z14" s="44">
         <v>5</v>
       </c>
-      <c r="AA14" s="47">
+      <c r="AA14" s="44">
         <v>6</v>
       </c>
     </row>
@@ -2313,16 +2369,16 @@
       <c r="N15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="47" t="s">
+      <c r="Y15" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="Z15" s="44">
         <v>3</v>
       </c>
-      <c r="AA15" s="47">
+      <c r="AA15" s="44">
         <v>4</v>
       </c>
     </row>
@@ -2334,7 +2390,7 @@
       <c r="F16" s="28"/>
       <c r="K16" s="31">
         <f>B22+(7*K11)</f>
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="L16" s="32">
         <f>C22+(1*K11)</f>
@@ -2355,13 +2411,13 @@
       <c r="T16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="47" t="s">
+      <c r="Y16" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" s="47">
+      <c r="Z16" s="44">
         <v>1</v>
       </c>
-      <c r="AA16" s="47">
+      <c r="AA16" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2373,17 +2429,17 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25"/>
-      <c r="T17" s="47">
+      <c r="T17" s="44">
         <f>10+(Z16*AA16)</f>
         <v>10</v>
       </c>
-      <c r="Y17" s="47" t="s">
+      <c r="Y17" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="44">
         <v>-1</v>
       </c>
-      <c r="AA17" s="47">
+      <c r="AA17" s="44">
         <v>2</v>
       </c>
     </row>
@@ -2391,13 +2447,13 @@
       <c r="K18" t="s">
         <v>69</v>
       </c>
-      <c r="Y18" s="47" t="s">
+      <c r="Y18" s="44" t="s">
         <v>77</v>
       </c>
       <c r="Z18" s="13">
         <v>0.2</v>
       </c>
-      <c r="AA18" s="47">
+      <c r="AA18" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2408,13 +2464,13 @@
       <c r="K19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Y19" s="47" t="s">
+      <c r="Y19" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="47">
+      <c r="Z19" s="44">
         <v>150</v>
       </c>
-      <c r="AA19" s="47">
+      <c r="AA19" s="44">
         <v>4</v>
       </c>
     </row>
@@ -2437,7 +2493,7 @@
       <c r="N20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="46" t="s">
+      <c r="O20" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2462,7 +2518,7 @@
       </c>
       <c r="K21" s="31">
         <f>B27+(5*K11)</f>
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="L21" s="32">
         <f>C27+(1.5*K11)</f>
@@ -2483,7 +2539,7 @@
     </row>
     <row r="22" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="31">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C22" s="32">
         <v>10</v>
@@ -2538,7 +2594,7 @@
       <c r="N25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="46" t="s">
+      <c r="O25" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2563,7 +2619,7 @@
       </c>
       <c r="K26" s="31">
         <f>B32+(62.5*K11)</f>
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="L26" s="32">
         <f>C32+(5*K11)</f>
@@ -2584,7 +2640,7 @@
     </row>
     <row r="27" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C27" s="32">
         <v>20</v>
@@ -2677,7 +2733,7 @@
     </row>
     <row r="32" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="31">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C32" s="32">
         <v>50</v>

--- a/Document/밸런스 테스트 문서.xlsx
+++ b/Document/밸런스 테스트 문서.xlsx
@@ -1159,6 +1159,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,21 +1247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,7 +1532,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,17 +1580,17 @@
       <c r="H3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="O3" s="75" t="s">
+      <c r="K3" s="56"/>
+      <c r="O3" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="51" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1632,11 +1632,11 @@
         <f>K4</f>
         <v>30</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="54">
         <f>K4*1.1</f>
         <v>33</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="54">
         <f>K4*1.5</f>
         <v>45</v>
       </c>
@@ -1649,14 +1649,14 @@
       <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="39" t="s">
@@ -1666,16 +1666,16 @@
         <f>$K$4*0.1</f>
         <v>3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="60">
         <f>K4*0.6</f>
         <v>18</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="58">
+      <c r="E8" s="61"/>
+      <c r="F8" s="63">
         <f>(C8*5)+D8</f>
         <v>33</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1705,13 +1705,13 @@
       <c r="J11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="52">
         <v>3</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="53">
         <v>3</v>
       </c>
     </row>
@@ -1744,16 +1744,16 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="52"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="40" t="s">
@@ -2115,10 +2115,10 @@
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="46" t="s">
         <v>100</v>
       </c>
@@ -2140,39 +2140,39 @@
         <f>H28+(H28*1.5)+(H28*0.3)</f>
         <v>28</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="76">
         <f>((O16-(D5*H28))+(O21-(D5*H28))+(O26-(D5*H28)))</f>
         <v>972</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="77"/>
       <c r="H5" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="73" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="79"/>
       <c r="H6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="71">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="76">
         <f>B5+(H22*(H26/2))</f>
         <v>1700</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="77"/>
       <c r="H7" t="s">
         <v>103</v>
       </c>
@@ -2184,14 +2184,14 @@
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="79"/>
       <c r="H8" t="s">
         <v>104</v>
       </c>
@@ -2209,15 +2209,15 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="58">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="63">
         <f>F7-(F5*(H26/2.5))</f>
         <v>144.79999999999995</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="64"/>
       <c r="K9" t="s">
         <v>96</v>
       </c>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="75"/>
       <c r="K11" s="8">
         <f>H26</f>
         <v>4</v>
